--- a/biology/Zoologie/Atheraster/Atheraster.xlsx
+++ b/biology/Zoologie/Atheraster/Atheraster.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Atheraster est un genre d'étoiles de mer abyssales de la famille des Goniasteridae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (7 janvier 2024)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (7 janvier 2024) :
 Atheraster arandae (Mah, 2006) -- Au large de la Nouvelle-Calédonie
 Atheraster symphonia Mah, 2022 -- Pacifique nord
 			Atheraster arandae.
@@ -546,9 +560,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Atheraster Mah (d), 2022[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Atheraster Mah (d), 2022.
 </t>
         </is>
       </c>
@@ -577,7 +593,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Christopher L. Mah, « New Genera, Species and Occurrences of Deep-Sea Asteroidea (Valvatacea, Forcipulatacea, Echinodermata) collected from the North Pacific Ocean by the CAPSTONE Expedition », Zootaxa, Auckland, vol. 5164, no 1,‎ 12 juillet 2022, p. 1-75 (ISSN 1175-5326, e-ISSN 1175-5334, lire en ligne ).</t>
         </is>
